--- a/tracklets/043.xlsx
+++ b/tracklets/043.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as16542/OneDrive - University of Bristol/Repositories/Metric Learning Open Cows/tracklets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A8FEB7-9728-5841-98AC-EE4E31318D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2380" yWindow="1500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -263,7 +277,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="000056.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="000056.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -301,7 +321,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="000009.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="000009.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -339,7 +365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="000015.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="000015.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -377,7 +409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="000048.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="000048.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -415,7 +453,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="000050.jpg"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="000050.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -453,7 +497,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="000052.jpg"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="000052.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -491,7 +541,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="000043.jpg"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="000043.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -529,7 +585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="000037.jpg"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="000037.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -567,7 +629,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="000014.jpg"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="000014.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -605,7 +673,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="000057.jpg"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="000057.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -643,7 +717,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="000019.jpg"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="000019.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -681,7 +761,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="000040.jpg"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="000040.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -719,7 +805,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="000060.jpg"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="000060.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -757,7 +849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="000046.jpg"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="000046.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -795,7 +893,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="000051.jpg"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="000051.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -833,7 +937,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="000044.jpg"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="000044.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -871,7 +981,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="000011.jpg"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="000011.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -909,7 +1025,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="000002.jpg"/>
+        <xdr:cNvPr id="19" name="Picture 18" descr="000002.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -947,7 +1069,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="000041.jpg"/>
+        <xdr:cNvPr id="20" name="Picture 19" descr="000041.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -985,7 +1113,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="000003.jpg"/>
+        <xdr:cNvPr id="21" name="Picture 20" descr="000003.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1023,7 +1157,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="000032.jpg"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="000032.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1061,7 +1201,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="000025.jpg"/>
+        <xdr:cNvPr id="23" name="Picture 22" descr="000025.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1099,7 +1245,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="000012.jpg"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="000012.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1137,7 +1289,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="000058.jpg"/>
+        <xdr:cNvPr id="25" name="Picture 24" descr="000058.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1175,7 +1333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="000018.jpg"/>
+        <xdr:cNvPr id="26" name="Picture 25" descr="000018.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1213,7 +1377,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="000013.jpg"/>
+        <xdr:cNvPr id="27" name="Picture 26" descr="000013.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1251,7 +1421,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="000017.jpg"/>
+        <xdr:cNvPr id="28" name="Picture 27" descr="000017.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1289,7 +1465,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="000008.jpg"/>
+        <xdr:cNvPr id="29" name="Picture 28" descr="000008.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1327,7 +1509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="000035.jpg"/>
+        <xdr:cNvPr id="30" name="Picture 29" descr="000035.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,7 +1553,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30" descr="000005.jpg"/>
+        <xdr:cNvPr id="31" name="Picture 30" descr="000005.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1403,7 +1597,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="000001.jpg"/>
+        <xdr:cNvPr id="32" name="Picture 31" descr="000001.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1441,7 +1641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="000006.jpg"/>
+        <xdr:cNvPr id="33" name="Picture 32" descr="000006.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1479,7 +1685,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="000062.jpg"/>
+        <xdr:cNvPr id="34" name="Picture 33" descr="000062.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1517,7 +1729,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34" descr="000023.jpg"/>
+        <xdr:cNvPr id="35" name="Picture 34" descr="000023.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1555,7 +1773,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="000026.jpg"/>
+        <xdr:cNvPr id="36" name="Picture 35" descr="000026.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1568,8 +1792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="39509700"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="39725600"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,7 +1817,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="000036.jpg"/>
+        <xdr:cNvPr id="37" name="Picture 36" descr="000036.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1606,8 +1836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="40671750"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="40894000"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,7 +1861,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="000010.jpg"/>
+        <xdr:cNvPr id="38" name="Picture 37" descr="000010.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1644,8 +1880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="41833800"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="42062400"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,7 +1905,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="000039.jpg"/>
+        <xdr:cNvPr id="39" name="Picture 38" descr="000039.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1682,8 +1924,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="42995850"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="43230800"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,7 +1949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="000059.jpg"/>
+        <xdr:cNvPr id="40" name="Picture 39" descr="000059.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1720,8 +1968,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="44157900"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="44399200"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1745,7 +1993,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40" descr="000004.jpg"/>
+        <xdr:cNvPr id="41" name="Picture 40" descr="000004.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1758,8 +2012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="45319950"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="45567600"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1783,7 +2037,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="000033.jpg"/>
+        <xdr:cNvPr id="42" name="Picture 41" descr="000033.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1821,7 +2081,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42" descr="000034.jpg"/>
+        <xdr:cNvPr id="43" name="Picture 42" descr="000034.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1859,7 +2125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43" descr="000061.jpg"/>
+        <xdr:cNvPr id="44" name="Picture 43" descr="000061.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1897,7 +2169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="000028.jpg"/>
+        <xdr:cNvPr id="45" name="Picture 44" descr="000028.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1935,7 +2213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="000030.jpg"/>
+        <xdr:cNvPr id="46" name="Picture 45" descr="000030.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1973,7 +2257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46" descr="000045.jpg"/>
+        <xdr:cNvPr id="47" name="Picture 46" descr="000045.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2011,7 +2301,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="000029.jpg"/>
+        <xdr:cNvPr id="48" name="Picture 47" descr="000029.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2049,7 +2345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48" descr="000042.jpg"/>
+        <xdr:cNvPr id="49" name="Picture 48" descr="000042.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2087,7 +2389,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49" descr="000031.jpg"/>
+        <xdr:cNvPr id="50" name="Picture 49" descr="000031.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2125,7 +2433,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50" descr="000021.jpg"/>
+        <xdr:cNvPr id="51" name="Picture 50" descr="000021.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2163,7 +2477,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51" descr="000022.jpg"/>
+        <xdr:cNvPr id="52" name="Picture 51" descr="000022.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2201,7 +2521,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52" descr="000047.jpg"/>
+        <xdr:cNvPr id="53" name="Picture 52" descr="000047.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2239,7 +2565,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="000055.jpg"/>
+        <xdr:cNvPr id="54" name="Picture 53" descr="000055.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2277,7 +2609,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54" descr="000049.jpg"/>
+        <xdr:cNvPr id="55" name="Picture 54" descr="000049.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2315,7 +2653,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="000038.jpg"/>
+        <xdr:cNvPr id="56" name="Picture 55" descr="000038.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2353,7 +2697,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56" descr="000016.jpg"/>
+        <xdr:cNvPr id="57" name="Picture 56" descr="000016.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2391,7 +2741,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="000027.jpg"/>
+        <xdr:cNvPr id="58" name="Picture 57" descr="000027.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2429,7 +2785,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58" descr="000024.jpg"/>
+        <xdr:cNvPr id="59" name="Picture 58" descr="000024.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2467,7 +2829,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="000054.jpg"/>
+        <xdr:cNvPr id="60" name="Picture 59" descr="000054.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2505,7 +2873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="000007.jpg"/>
+        <xdr:cNvPr id="61" name="Picture 60" descr="000007.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2543,7 +2917,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="000020.jpg"/>
+        <xdr:cNvPr id="62" name="Picture 61" descr="000020.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2612,7 +2992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2644,9 +3024,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2678,6 +3076,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2853,323 +3269,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="92" customHeight="1">
+    <row r="1" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="92" customHeight="1">
+    <row r="2" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="92" customHeight="1">
+    <row r="3" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="92" customHeight="1">
+    <row r="4" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="92" customHeight="1">
+    <row r="5" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="92" customHeight="1">
+    <row r="6" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="92" customHeight="1">
+    <row r="7" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="92" customHeight="1">
+    <row r="8" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="92" customHeight="1">
+    <row r="9" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="92" customHeight="1">
+    <row r="10" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="92" customHeight="1">
+    <row r="11" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="92" customHeight="1">
+    <row r="12" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="92" customHeight="1">
+    <row r="13" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="92" customHeight="1">
+    <row r="14" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="92" customHeight="1">
+    <row r="15" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="92" customHeight="1">
+    <row r="16" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="92" customHeight="1">
+    <row r="17" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="92" customHeight="1">
+    <row r="18" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="92" customHeight="1">
+    <row r="19" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="92" customHeight="1">
+    <row r="20" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="92" customHeight="1">
+    <row r="21" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="92" customHeight="1">
+    <row r="22" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="92" customHeight="1">
+    <row r="23" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="92" customHeight="1">
+    <row r="24" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="92" customHeight="1">
+    <row r="25" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="92" customHeight="1">
+    <row r="26" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="92" customHeight="1">
+    <row r="27" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="92" customHeight="1">
+    <row r="28" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="92" customHeight="1">
+    <row r="29" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="92" customHeight="1">
+    <row r="30" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="92" customHeight="1">
+    <row r="31" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="92" customHeight="1">
+    <row r="32" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="92" customHeight="1">
+    <row r="33" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="92" customHeight="1">
+    <row r="34" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="92" customHeight="1">
+    <row r="35" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="92" customHeight="1">
+    <row r="36" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="92" customHeight="1">
+    <row r="37" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="92" customHeight="1">
+    <row r="38" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="92" customHeight="1">
+    <row r="39" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="92" customHeight="1">
+    <row r="40" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="92" customHeight="1">
+    <row r="41" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="92" customHeight="1">
+    <row r="42" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="92" customHeight="1">
+    <row r="43" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="92" customHeight="1">
+    <row r="44" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="92" customHeight="1">
+    <row r="45" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="92" customHeight="1">
+    <row r="46" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="92" customHeight="1">
+    <row r="47" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="92" customHeight="1">
+    <row r="48" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="92" customHeight="1">
+    <row r="49" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="92" customHeight="1">
+    <row r="50" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="92" customHeight="1">
+    <row r="51" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="92" customHeight="1">
+    <row r="52" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="92" customHeight="1">
+    <row r="53" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="92" customHeight="1">
+    <row r="54" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="92" customHeight="1">
+    <row r="55" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="92" customHeight="1">
+    <row r="56" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="92" customHeight="1">
+    <row r="57" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="92" customHeight="1">
+    <row r="58" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="92" customHeight="1">
+    <row r="59" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="92" customHeight="1">
+    <row r="60" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="92" customHeight="1">
+    <row r="61" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="92" customHeight="1"/>
+    <row r="62" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
